--- a/call_of_cthulhu/magic/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/旧版手册呪文_仅名称.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="931" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18CD3821-B413-4B3F-8B7A-A7CE21583A9B}"/>
+  <xr:revisionPtr revIDLastSave="1068" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0C78D3-B8AB-4EAE-BAA8-705AD938106C}"/>
   <bookViews>
-    <workbookView xWindow="6414" yWindow="2142" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="504" yWindow="204" windowWidth="11646" windowHeight="12516" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
-    <sheet name="旧版手册呪文" sheetId="1" r:id="rId2"/>
-    <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
+    <sheet name="颜色对应 (2)" sheetId="11" r:id="rId1"/>
+    <sheet name="旧版手册呪文 (2)" sheetId="10" r:id="rId2"/>
+    <sheet name="缺英即可导入" sheetId="4" r:id="rId3"/>
     <sheet name="本体+颜色+目录修改" sheetId="9" r:id="rId4"/>
-    <sheet name="缺英即可导入" sheetId="4" r:id="rId5"/>
-    <sheet name="都缺1" sheetId="6" r:id="rId6"/>
-    <sheet name="都缺2" sheetId="7" r:id="rId7"/>
-    <sheet name="都缺3" sheetId="8" r:id="rId8"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId5"/>
+    <sheet name="旧版手册呪文" sheetId="1" r:id="rId6"/>
+    <sheet name="都缺1" sheetId="6" r:id="rId7"/>
+    <sheet name="都缺2" sheetId="7" r:id="rId8"/>
+    <sheet name="都缺3" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="653">
   <si>
     <t>Key</t>
   </si>
@@ -1033,60 +1035,12 @@
     <t>IMPLANTSUGGESTION/心理暗示术/MentalSuggestion</t>
   </si>
   <si>
-    <t>支配术</t>
-  </si>
-  <si>
-    <t>邪眼术</t>
-  </si>
-  <si>
-    <t>夏恩逐出术</t>
-  </si>
-  <si>
-    <t>消失术</t>
-  </si>
-  <si>
-    <t>深渊之息</t>
-  </si>
-  <si>
-    <t>DOMINATE/Dominate</t>
-  </si>
-  <si>
-    <t>EVILEYE/EvilEye</t>
-  </si>
-  <si>
-    <t>CASTOUTSHAN/CastOutShan</t>
-  </si>
-  <si>
-    <t>VANISH/Vanish</t>
-  </si>
-  <si>
-    <t>BREATHOFTHEDEEP/BreathoftheDeep</t>
-  </si>
-  <si>
-    <t>心跳停止术</t>
-  </si>
-  <si>
-    <t>STOPHEART/StopHeart</t>
-  </si>
-  <si>
-    <t>身体部件转移术</t>
-  </si>
-  <si>
-    <t>兽化人束缚术</t>
-  </si>
-  <si>
     <t>占卜窗创造术</t>
   </si>
   <si>
     <t>灵体猎手变身术</t>
   </si>
   <si>
-    <t>TRANSFERBODYPART/TransferBodyPart</t>
-  </si>
-  <si>
-    <t>BINDLOUP-GAROU/BindWere-Creature</t>
-  </si>
-  <si>
     <t>CREATESCRYINGWINDOW/CreateScryingWindow</t>
   </si>
   <si>
@@ -1135,84 +1089,9 @@
     <t>消耗：1点魔法值；1点理智值</t>
   </si>
   <si>
-    <t>施法用时：即时</t>
-  </si>
-  <si>
-    <t>让目标的意志屈从于施法者的意志。施法者须和目标进行一次对抗检定并胜出，法术才能生效。若成功，目标必须服从施法者的命令，没有例外，直到下一个战斗轮结束为止。本法术只能影响单一个体，最大作用范围是10码。显然，命令必须要在目标的智力理解范围之内，并且如果命令和目标本能相悖（例如命令人类去飞行），法术可能会被破坏。只要施法者认为可行的话，支配术就可以反复施放任意多次，使得一名目标被连续不断地控制数分钟。本法术的每次施放都具有相同的消耗和限制。反复施放是即时的。</t>
-  </si>
-  <si>
-    <t>别名：巫师令、控制之咏、恶意支配、言于内声</t>
-  </si>
-  <si>
-    <t>消耗：10点魔法值；1D4点理智值</t>
-  </si>
-  <si>
-    <t>施法用时：1轮</t>
-  </si>
-  <si>
-    <t>让一名目标遭受厄运的折磨。目标必须在施法者视野范围之内，但此时目标并不一定能感觉到邪眼术的影响，只是可能在邪眼术初次施放的时候感觉到奇怪的寒意和不安。施法成功后，目标的幸运检定成功率减半*。目标所有的属性和技能检定均得到一颗惩罚骰；他用枪时每当掷骰出75以上枪就会卡壳，用近战武器的时候每当掷骰在75以上武器就会损坏；召唤、束缚术的成功率减半。效果将持续到第二天的日出、或者施法者撤回法术、或者施法者被找到并流血（狠狠地打，打到出血为止）、或者目标死亡。本法术可以被“邪眼守卫术”(抵消。*注，如果使用了幸运的可选规则，目标也不能消耗和增加幸运点数。深层魔法：能够召唤克苏鲁神话更深层智慧和知识的人能够对多人（最多五名）使用本法术，他们必须在施法者的视野范围内。</t>
-  </si>
-  <si>
-    <t>别名：噩运之仪、诅咒术、黑暗妖术</t>
-  </si>
-  <si>
-    <t>消耗：10点魔法值；1+点理智值</t>
-  </si>
-  <si>
     <t>施法用时：1小时</t>
   </si>
   <si>
-    <t>本法术可以从活体寄主当中驱逐夏恩（夏盖虫族），寄主须在一个用马鞭草摆出的五英尺大小的五角星形区域当中。施法者损失1点理智值（如果对自己施放，施法者消耗2点理智值）。在仪式之后，五角星在接下来的十二小时之内可以保护人不受新的夏恩入侵。</t>
-  </si>
-  <si>
-    <t>别名：取出仪式、极恶夏盖的净化、五角守卫</t>
-  </si>
-  <si>
-    <t>施法者在一阵烟雾中消失，并在预定地点重新出现。该地点在创建一个“时空箱”时确定。时空箱准备完成后，施法者牺牲10点POW（一次性消费）并将他身体的一部分（血液、牙齿或指甲）放进箱子；若取出这些部分清空箱子，法术不会生效，巫师必须重新准备箱子（并再次支付法术消耗）。施法者在读出某个短语或打出某个手势之后，会立即传送到时空箱内部，不管它在什么地方。时空箱甚至可以在几百英里的距离之外。箱子可以在施法者不知情的情况下移动，可能会让旅行的人大吃一惊！每次用这种方式旅行需要消耗5点魔法值和1点理智值。</t>
-  </si>
-  <si>
-    <t>别名：巫师的出口、回返万全、身体蒸发术</t>
-  </si>
-  <si>
-    <t>消耗：5点魔法值；1点理智值；（一次性的10点POW）</t>
-  </si>
-  <si>
-    <t>消耗：8点魔法值；1D6点理智值</t>
-  </si>
-  <si>
-    <t>目标的肺里会灌满海水，可以造成痛苦的溺亡。目标必须在施法者的视野内。在1轮的咒语默念之后，施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若施法者胜出，目标开始溺水——倒地并被海水窒息，每轮受到1D8点伤害。目标须在每轮受伤害后进行一次极难CON（≤1/5CON）检定；如果检定成功，表明咸水已经被排出，法术效果终止。注意施法者可以在任何时候中止法术的效果。</t>
-  </si>
-  <si>
-    <t>别名：蓝色海洋的通货、水手的诅咒、盐卤之吻</t>
-  </si>
-  <si>
-    <t>消耗：14点魔法值；2D6点理智值</t>
-  </si>
-  <si>
-    <t>令法术的目标经受一次严重的心脏病发作。虽然本法术只需要一轮去施放，但施法者必须花掉至少一天的时间来准备本法术（在法术施放前一星期）。准备过程包括一场认真的仪式，施法者在仪式中净化自己的身心。净化过后，法术可以在随后七天的任何时候施放。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效，且目标须在施法者视野范围内。若成功，目标失去4D6点耐久值，若还活着也会在2D10轮当中失去战斗能力。深层魔法：在本法术的一个恐怖扭曲版本中，目标尚在搏动的心脏会被召唤到施法者的手中（最大距离100尺）。必死无疑。</t>
-  </si>
-  <si>
-    <t>别名：抓攫不信者跳动的心脏、血手术、死之真言</t>
-  </si>
-  <si>
-    <t>消耗：10+点魔法值；5点POW；1D10点理智值</t>
-  </si>
-  <si>
-    <t>能让施法者在两具身体之间转移身体部件。没有互换器官或肢体的限制。如果目标不同意，则施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。本法术包括附魔过程，制造一条魔法线来缝合转移的身体部件。大多数肢体需要投入10点魔法值，转移越复杂，消耗越大（因此转移双腿需要20点魔法值，转移头颅和大脑需要100点魔法值）。若其中一具对象是尸体（如施法者想要把尸体的手转移到活物身上），则消耗由5点POW上升到10点POW。若要把身体部件还给原主（在通过本法术转移了身体部件以后），需要施放“反转移术”。深层魔法：熟练运用本法术的皮肤兄弟会监视某些目标，图谋珍贵的解剖材料，如田径运动员的腿、拳击手的拳头、潜水员的肺、钢琴家的手等等。本法术具有的邪恶变体不可尽述。</t>
-  </si>
-  <si>
-    <t>别名：血肉收藏、皮肤交易</t>
-  </si>
-  <si>
-    <t>消耗：14点魔法值；2D4点理智值</t>
-  </si>
-  <si>
-    <t>移除兽化人控制它变形能力的愿望，在短时间内迫使它此后以变化的形态去生活。被这样束缚的生物将除去人性，永远变成野兽。本法术一经施放，目标即失去选择何时变身的能力。它将变得越来越像野兽，愤怒、恐惧、性欲和饥饿之类的兽性本能都增强。变形将不再是有意的选择。效果随着时间而加强。在1D6天之后，目标的一半时间都是动物状态。再1D6天之后，这个生物的人性已经变得毫无吸引力且乏味，它将从此作为野兽生活下去。要施放本法术，施法者需要一碗固体的银子或者金子。碗的内表面必须刻画有本法术的咒语。施法者还要在施法地点的地面上刻画一个圆形的保护圈，围绕保护圈点燃六支蜡烛。当蜡烛点亮以后，施法者就不可以离开保护圈。至少要在碗里滴入六滴人类鲜血。在碗里放入目标的所有物来确定目标（毛发、指甲、个人物品等等）。可以一次指定多名目标。必须不间断地咏唱咒语一个小时，如果一切顺利，碗会短暂发光，法术便生效了。施法之后，目标将因为兽性的需求经历不断增长的恐惧和欲望，在它知道自己发生了什么之前，不损失理智值；知道了以后，每天损失1D3+1点理智值，直到POW的五分之一天以后，它失去自己所有的理智值（人类形态下的），并永久疯狂。</t>
-  </si>
-  <si>
-    <t>别名：物种之牢狱、狼人束缚术</t>
-  </si>
-  <si>
     <t>消耗：98 点魔法值；50 点 POW；每次 1D3 点理智值</t>
   </si>
   <si>
@@ -1294,48 +1173,6 @@
     <t>别名：直感他人的存在、定位生命共振</t>
   </si>
   <si>
-    <t>コスト：1MP、1正気度ポイント</t>
-  </si>
-  <si>
-    <t>必要ラウンド：瞬時</t>
-  </si>
-  <si>
-    <t>別名：魔術師の命令、憑依の詠唱、災いの影響</t>
-  </si>
-  <si>
-    <t>対象の意思を曲げて術者の意志の通りにさせることができる。対抗POWロールが必要。</t>
-  </si>
-  <si>
-    <t>コスト：10MP、1d4正気度ポイント</t>
-  </si>
-  <si>
-    <t>必要ラウンド：1R</t>
-  </si>
-  <si>
-    <t>別名：薄幸の儀礼、暗き呪い、魔女の呪い</t>
-  </si>
-  <si>
-    <t>対象の幸運ロールとDEXロールの成功率を1/2にし、能力値ロールにペナルティダイスを一つ付ける。射撃は75%以上でジャミングする。召喚/従属呪文の成功率が1/2になる。</t>
-  </si>
-  <si>
-    <t>シャン（シャガイからの昆虫）を生きている宿主から追い出す呪文。</t>
-  </si>
-  <si>
-    <t>コスト：8MP、1d6正気度ポイント</t>
-  </si>
-  <si>
-    <t>別名：大海の渦、水夫の呪い、塩水のキス</t>
-  </si>
-  <si>
-    <t>対象の体を海水で満たし、潜在的に溺れるような不快な死をもたらす。対抗POWロールが必要で成功すれば毎ラウンド1d8のダメージを与える。</t>
-  </si>
-  <si>
-    <t>この呪文の対象は突然激しい心臓発作に襲われ耐久力を失う。</t>
-  </si>
-  <si>
-    <t>呪文の使い手がふわっと煙のように消えたり、あるいは前もって準備しておいた箱の側に瞬時に戻ってきたりできる呪文。</t>
-  </si>
-  <si>
     <t>塞壬之歌</t>
   </si>
   <si>
@@ -1921,15 +1758,6 @@
     <t>修德梅尔赤印术</t>
   </si>
   <si>
-    <t>The lamp of Alhazred was unusual in its appearance. It was meant for burning oil, and seemed to be of gold. It had the shape of a small oblong pot, with a handle curved up from one side, and a spout for wick and flame on the other. Many curious drawings decorated it, together with letters and pictures arranged into words in a language unfamiliar.—August Derleth and H. P. Lovecraft, "The Lamp of Alhazred." An enchantment. When lit, this lamp gives forth vapors that sends the minds of those who inhale the vapors into ecstasies of vision. These revelations are of the strange and weird landscapes of Mythos places and dimensions, and the ways of the entities there. If this lamp was actually used by alHazred, the author of the Al Azif, some of the breadth of his knowledge would be explained.</t>
-  </si>
-  <si>
-    <t>LAMPOFALHAZRED/LampofAlhazred</t>
-  </si>
-  <si>
-    <t>阿尔哈兹莱德的油灯</t>
-  </si>
-  <si>
     <t>HEAL/Heal</t>
   </si>
   <si>
@@ -2029,47 +1857,6 @@
     <t>MI-GOHYPNOSIS/Mi-GoHypnosis</t>
   </si>
   <si>
-    <t>https://github.com/errrr-er/alll/issues</t>
-  </si>
-  <si>
-    <t>https://box.n3ko.cc/_/no_reply31cat</t>
-  </si>
-  <si>
-    <t>提问箱</t>
-  </si>
-  <si>
-    <r>
-      <t>汇报错误等请使用以下渠道、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一切以github里最新版本为准</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">目录  旧版手册呪文(中日英三语) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ver1.0.0</t>
-    </r>
-  </si>
-  <si>
     <t>这道咒文可令一名或数名牺牲者遭到恐怖的死亡。施法时间为1轮，须支付3点魔力值和1D8点理智值。只要施法者用手指在空中划出正确的纹路，暗红色的法印就会凭空亮起。从下一轮开始，法印会展现出它邪恶的效果；为了维持法印，施法者必须保持精神集中，每轮还要追加支付3点魔力值。</t>
   </si>
   <si>
@@ -2193,17 +1980,26 @@
     <t>英+简日</t>
   </si>
   <si>
-    <t>Github Issues</t>
-  </si>
-  <si>
-    <t>QQ群</t>
+    <t>VOIDLIGHT/VoidLight/光之空隙</t>
+  </si>
+  <si>
+    <t>CALLPOWEROFNYAMBE/PowerofNyambe/召唤尼安贝的魔力</t>
+  </si>
+  <si>
+    <t>SENDDREAMING/SendDreaming/送往梦幻时代</t>
+  </si>
+  <si>
+    <t>PLUTONIANDRUG/PlutonianDrug/冥王星之药</t>
+  </si>
+  <si>
+    <t>CREATEWINDOW/创造传送窗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,29 +2043,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2330,6 +2110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2346,7 +2132,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2373,25 +2159,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2411,6 +2194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2675,917 +2462,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
-  <dimension ref="A1:C171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736ABE33-FDE5-46EA-85EF-94395BFB2F35}">
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="2.41796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1015625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.20703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7890625" style="18"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>712</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2150284119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="18" t="s">
-        <v>318</v>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="7"/>
+      <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="8"/>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9"/>
+      <c r="C8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15"/>
+      <c r="C10" t="s">
+        <v>647</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{15855C79-66F2-4EE4-A52D-3F2CEA5B34FE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{46907506-540E-4EB0-9FE1-994021736913}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CC61B9-6E5D-44CA-9D1D-B3BC07E906AF}">
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3620,1322 +2562,833 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>167</v>
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>168</v>
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>237</v>
+      <c r="A7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>72</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>174</v>
+      <c r="A13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>632</v>
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>176</v>
+        <v>77</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>179</v>
+        <v>80</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>82</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>239</v>
+        <v>85</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>240</v>
+        <v>86</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>87</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>185</v>
+        <v>88</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>186</v>
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>187</v>
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>188</v>
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>189</v>
+        <v>92</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>191</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>192</v>
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>193</v>
+        <v>244</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>328</v>
+        <v>96</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>194</v>
+        <v>97</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>195</v>
+        <v>98</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>99</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>197</v>
+        <v>100</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>330</v>
+        <v>101</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>198</v>
+        <v>102</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>199</v>
+        <v>103</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>637</v>
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>331</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>638</v>
+        <v>105</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>200</v>
+        <v>106</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>201</v>
+        <v>107</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>202</v>
+        <v>108</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>203</v>
+        <v>109</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>204</v>
+        <v>110</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>205</v>
+        <v>266</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>111</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>207</v>
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>208</v>
+        <v>113</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>241</v>
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>209</v>
+        <v>115</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>210</v>
+        <v>116</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>211</v>
+        <v>117</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>622</v>
+        <v>118</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>214</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>624</v>
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>216</v>
+        <v>123</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>217</v>
+        <v>124</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>218</v>
+        <v>125</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>219</v>
+        <v>126</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>220</v>
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>222</v>
+        <v>129</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>223</v>
+        <v>286</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>225</v>
+        <v>131</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>226</v>
+        <v>132</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>228</v>
+        <v>134</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>229</v>
+        <v>135</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>230</v>
+        <v>136</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>231</v>
+        <v>137</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>139</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>236</v>
+        <v>142</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>242</v>
+        <v>144</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>332</v>
+        <v>145</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>243</v>
+        <v>146</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>250</v>
+        <v>150</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>251</v>
+        <v>151</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>255</v>
+        <v>157</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>257</v>
+        <v>159</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>258</v>
+        <v>160</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>259</v>
+        <v>161</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>260</v>
+        <v>162</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>266</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>286</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B105" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4946,11 +3399,999 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="14" width="9.15625" style="11"/>
+    <col min="15" max="16" width="9.15625" style="12"/>
+    <col min="17" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="G5" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.3" customHeight="1">
+      <c r="I8" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.3" customHeight="1">
+      <c r="N14" s="12"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.3" customHeight="1">
+      <c r="N19" s="12"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" ht="15.3" customHeight="1">
+      <c r="N20" s="12"/>
+      <c r="P20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="9.15625" style="11"/>
+    <col min="5" max="12" width="9.15625" style="19"/>
+    <col min="13" max="21" width="9.15625" style="11"/>
+    <col min="22" max="23" width="9.15625" style="12"/>
+    <col min="24" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="H4" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="H5" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="H6" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.3" customHeight="1">
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.3" customHeight="1">
+      <c r="F14" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="U16" s="12"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="K17" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="2:23" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="U18" s="12"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="2:23" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="W20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
@@ -4965,9 +4406,9 @@
       <c r="C4" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="18"/>
       <c r="F4" t="s">
-        <v>709</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4983,1229 +4424,22 @@
     <row r="8" spans="2:6">
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" t="s">
-        <v>708</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>647</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
         <v>322</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
-  <dimension ref="A1:X20"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="11"/>
-    <col min="23" max="24" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15.3" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.3" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.3" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3" t="s">
-        <v>142</v>
-      </c>
-      <c r="T3" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="I4" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="I5" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="I6" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="V7" s="12"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.3" customHeight="1">
-      <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.3" customHeight="1">
-      <c r="F14" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.3" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="L17" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="X20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:Z20"/>
-  <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="11"/>
-    <col min="23" max="24" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.3" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.3" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.3" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.3" customHeight="1">
-      <c r="Q8" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.3" customHeight="1">
-      <c r="V14" s="12"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.3" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="X20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6213,6 +4447,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F166"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26171875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>286</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD23C35-6CB4-4BD3-8AEB-D709EB4CE400}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
@@ -6241,7 +5841,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -6362,70 +5962,70 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.3" customHeight="1">
@@ -6468,70 +6068,70 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.3" customHeight="1">
@@ -6574,7 +6174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB3DD89-5585-46F0-8F1A-97825E500626}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
@@ -6603,7 +6203,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -6719,64 +6319,64 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>548</v>
+        <v>493</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="X9" s="11"/>
     </row>
@@ -6820,64 +6420,64 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>574</v>
+        <v>519</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>576</v>
+        <v>521</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>577</v>
+        <v>522</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
@@ -6922,7 +6522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C7F52-414D-439D-B3EF-40928BEF37C1}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
@@ -6951,7 +6551,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -7068,64 +6668,64 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>579</v>
+        <v>524</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>582</v>
+        <v>527</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>604</v>
+        <v>549</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>608</v>
+        <v>553</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>610</v>
+        <v>555</v>
       </c>
       <c r="X9" s="11"/>
     </row>
@@ -7169,64 +6769,64 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>592</v>
+        <v>537</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>593</v>
+        <v>538</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>595</v>
+        <v>540</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>598</v>
+        <v>543</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>599</v>
+        <v>544</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>603</v>
+        <v>548</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>613</v>
+        <v>558</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="X15" s="11"/>
     </row>

--- a/call_of_cthulhu/magic/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/旧版手册呪文_仅名称.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1068" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0C78D3-B8AB-4EAE-BAA8-705AD938106C}"/>
+  <xr:revisionPtr revIDLastSave="1297" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5BFEB53-B0C6-4684-9934-AB064BFB0E4D}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="204" windowWidth="11646" windowHeight="12516" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="504" yWindow="204" windowWidth="11646" windowHeight="12516" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="颜色对应 (2)" sheetId="11" r:id="rId1"/>
-    <sheet name="旧版手册呪文 (2)" sheetId="10" r:id="rId2"/>
-    <sheet name="缺英即可导入" sheetId="4" r:id="rId3"/>
+    <sheet name="呪文 (2)" sheetId="10" r:id="rId2"/>
+    <sheet name="不缺缺后导入" sheetId="4" r:id="rId3"/>
     <sheet name="本体+颜色+目录修改" sheetId="9" r:id="rId4"/>
     <sheet name="颜色对应" sheetId="5" r:id="rId5"/>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId6"/>
-    <sheet name="都缺1" sheetId="6" r:id="rId7"/>
-    <sheet name="都缺2" sheetId="7" r:id="rId8"/>
-    <sheet name="都缺3" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="685">
   <si>
     <t>Key</t>
   </si>
@@ -1035,156 +1031,12 @@
     <t>IMPLANTSUGGESTION/心理暗示术/MentalSuggestion</t>
   </si>
   <si>
-    <t>占卜窗创造术</t>
-  </si>
-  <si>
-    <t>灵体猎手变身术</t>
-  </si>
-  <si>
-    <t>CREATESCRYINGWINDOW/CreateScryingWindow</t>
-  </si>
-  <si>
-    <t>BECOMESPECTRALHUNTER/BecomeSpectralHunter</t>
-  </si>
-  <si>
-    <t>哈布沙暴发生术</t>
-  </si>
-  <si>
-    <t>苏莱曼之尘</t>
-  </si>
-  <si>
-    <t>精神交换术</t>
-  </si>
-  <si>
-    <t>精神转移术</t>
-  </si>
-  <si>
-    <t>魔力吸取术</t>
-  </si>
-  <si>
-    <t>生命觉察术</t>
-  </si>
-  <si>
-    <t>BRINGHABOOB/SANDSTORM/BringHaboob</t>
-  </si>
-  <si>
-    <t>DUSTOFSULEIMAN/DustofSuleiman</t>
-  </si>
-  <si>
-    <t>MINDEXCHANGE/MindExchange</t>
-  </si>
-  <si>
-    <t>MINDTANSFER/MindTransfer</t>
-  </si>
-  <si>
-    <t>POWERDRAIN/PowerDrain</t>
-  </si>
-  <si>
-    <t>SENSELIFE/SenseLife</t>
-  </si>
-  <si>
-    <t>施法用时：5轮</t>
-  </si>
-  <si>
-    <t>消耗：1点魔法值；1点理智值</t>
-  </si>
-  <si>
     <t>施法用时：1小时</t>
   </si>
   <si>
-    <t>消耗：98 点魔法值；50 点 POW；每次 1D3 点理智值</t>
-  </si>
-  <si>
-    <t>施法用时：很多星期</t>
-  </si>
-  <si>
-    <t>附魔一块玻璃，可以创造一扇魔法窗户，巫师通过它可以观察过去。每次使用玻璃需要观察者损失 1D3 点理智值，并且在观察到某些怪物时还要单独处理理智值损失。要创造一扇占卜窗，施法者必须用 50 点POW来附魔一扇透明的观察玻璃。在附魔玻璃时，它必须指明过去的精确时间，这个时间是相对于玻璃创造时刻的。例如，可以说“800 年以前”，但不能说“公元前 1125 年”。在玻璃附魔锚定完成之后，须再附魔 98 块昂贵的彩色玻璃，每块都需要 1 点魔法值，仔细安装成几何形状的锦砖图案，透明玻璃在中央的位置。完成以后，中央的玻璃会显示它放置的位置的景象（只不过是过去的某个时间）。观察位置可以改变，每移动 100 英里（不足进位）需要消费 1 点魔法值并专注 5 分钟。占卜窗的缺点显而易见：特定的场景只能观察一次，因为窗两边的时间都在流逝；并且窗子必须设定在事件发生的位置。占卜窗也有着天然的危险。任何被观察的智能生物都可以通过一次困难的 POW 检定发现自己被观察了。发现了以后，这个生物（如果可以的话）会马上隔着窗子施放法术，包括召唤术、请神术，这可以让窗子的观察者一侧出现怪物！</t>
-  </si>
-  <si>
-    <t>别名：过去之事的视野创造术、历史之鉴、时代的玻璃</t>
-  </si>
-  <si>
-    <t>消耗：16点魔法值；10点POW；3D6点理智值</t>
-  </si>
-  <si>
-    <t>施法者将一名自愿的目标转化成一头不可见的、可怕的人形怪物，它可以守卫、追击或者攻击。本法术需要一尊特制的小塑像、数种动物的血液，并且要法术目标失去所有的理智值。目标会被永久转变并且完全不朽。灵体猎手和小塑像之间会产生联系，它不能走得离塑像所在的位置太远。如果破坏了小塑像，该生物将被驱散；但它经过一个星期以后能（魔法地）重建一个新的小塑像。如果在破坏小塑像的同时说出了“遣散之咏(ChantofDismissal)”，灵体猎手将被永久驱逐。灵体猎手的信息请查看附近的边栏。备注：据传，生活在莫哈维沙漠当中的霍特奇克族人知道“遣散之咏”（他们也知道如何创造灵体猎手），据说在霍特奇克族消失之前，“遣散之咏”至少还被一名来访者转抄过。深层魔法：若将投入法术的POW增加到32点，则巫师可以创造一头更像怪物的灵体猎手，STR、CON、SIZ和耐久值均加倍。</t>
-  </si>
-  <si>
-    <t>别名：召唤伏行的卫士</t>
-  </si>
-  <si>
-    <t>消耗：20点魔法值；1D4点理智值</t>
-  </si>
-  <si>
-    <t>施法者召唤自然的力量，聚集强力的旋风。在沙漠或者海滨沙丘上，旋风能产生沙尘暴的效果。本法术的各种变体似乎都是基于各地的地理和信仰而作的，每个版本中施法者都会召唤不同的神话神祇，诸如阿蒙-戈尔洛斯(Amon-Gorloth)，修德·梅尔或者伊塔库亚等。旋风大概20英里围圆，内部风速每小时30英里（七级），阵风风速大约是其二倍（十一级）。在风暴中的角色，根据行动不同，要得到相应的惩罚和难度等级提升。深层魔法：可以召唤更强、更有破坏力的风暴，可能造成巨大的灾难，当然法术的消耗也要相应增加。</t>
-  </si>
-  <si>
-    <t>别名：沙暴发生术、巨灵的血腥挠痒、伏木之手</t>
-  </si>
-  <si>
-    <t>消耗：每3剂10点魔法值</t>
-  </si>
-  <si>
-    <t>施法用时：24+小时（使用时每剂需1轮）</t>
-  </si>
-  <si>
-    <t>制造一种灰绿色的粉末，可以伤害来自其他存在位面的非自然的生物。这种粉末需要从至少2000年历史的木乃伊上取得灰尘，每具木乃伊足够制作三份魔法粉尘。原料还包括乳香、硫磺和硝石。依施法者的能力以及原料的获取的不同，制造这种混合物最少需要24小时，最多需要很多天。抛撒它的时候必须同时吟唱咒语。如果非地球原生的生物被这种粉尘撒中，每被一剂粉尘撒中，就损失1D20点耐久值（无视护甲）。撒出一剂粉尘需要一轮。根据K掷」或「克苏鲁神话」检定。这种粉末仅对非地球的和外星的生物有效，因此它可以伤害空鬼、犹格-索托斯和米-戈，但对修格斯、食尸鬼和深潜者无效。</t>
-  </si>
-  <si>
-    <t>别名：埃及粉、死者的保护</t>
-  </si>
-  <si>
-    <t>消耗：可变的魔法值；1D3点理智值</t>
-  </si>
-  <si>
-    <t>可以让施法者和另一人交换精神。施法者首次施放本法术时，必须消耗和目标的五分之一相同的魔法值。以后每次对同一目标施放时，消耗都会减少1点，最少为1点。目标必须知道施法者且二者间要具有强烈的感情纽带（如爱情）。若这种感情消失了，交换将不能进行。恢复感情会恢复交换可能。本法术可以在任意范围施放。施法者须和目标进行一次对抗检定并胜出，法术才能生效（法术施放的次数越多，交换越容易，因此法术的消耗降低了，如前文所述）。当施放本法术所需魔法值减少到1后，就不需进行施法者只需要强大的精神力量就可以任意交换精神。施法者一开始只能在目标身体里停留最多几分钟，但会（随着反复使用本法术）逐渐增加。当魔法值消耗降到1时，施法者就能不定时地停留了。注意目标在被交换到他人身体中时，需要进行理智检定（根据情况，1/1D3点或更多）。深层魔法：若将法术的魔法值消耗加倍，施法者可以让其他两个人互相交换精神。不需要有感情纽带，但两个人必须在同一位置（两个人之间以及他们和施法者之间都不能超过20英尺）。施法者须消耗等同于目标每人和的五分之一（此消耗重复施放不减少）。施法用时是可变的，通常是1D10+10分钟，不过根据KP裁定可以加长。逆向施放本法术可以让精神返回到正确的身体里。</t>
-  </si>
-  <si>
-    <t>别名：反之亦然咒、交换仪式、借人皮囊作衣裳</t>
-  </si>
-  <si>
-    <t>消耗：10点魔法值；1D10点理智值</t>
-  </si>
-  <si>
-    <t>以上本法术威力强大，能让施法者和目标永久交易精神，可能是用目标的身体来为自己续命。施法者须和目标进行一次对抗检定并胜出，法术才能生效。若成功，施法者失去1D10点理智值，目标失去2D10点理智值。若交换失败，施法者必须立即重新施法（消耗10点以上魔法值），不然他的精神就会消散在永恒之中。转换开始后就不能停止。施法成功意味着施法者永久掌控了目标的身体。他原来的身体现在成了无生命的躯壳。至于目标的精神，有推测认为会从身体中被放逐而死去；但也有些线索表明它仍留在原来的身体内，屈服于施法者的精神，困在永久的恐怖疯狂状态当中。深层魔法：巫师的黑暗意志是强大的力量，常常会超越完全的死亡。害怕死亡或渴望长寿的巫师可能会在施放“精神转移术”之前准备许多年。这些准备工作常与一些个人物品有关（如塑像和日记），法术的关键会在这些物品中等待让它实现的合适条件。通常这些关键是施法者的后裔子孙，在无意之中激活了法术。</t>
-  </si>
-  <si>
-    <t>别名：凡人的交易、无休止的血之活力、灵魂占据术</t>
-  </si>
-  <si>
-    <t>消耗：1D8点理智值</t>
-  </si>
-  <si>
-    <t>施法用时：2轮</t>
-  </si>
-  <si>
-    <t>从一名目标身上吸取魔法值。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若施法者胜出，目标损失1D6点魔法值，增加给施法者；若施法者未能击败目标，他会失去1D6点魔法值给目标。如果魔法值已枯竭，则法术会转而吸取耐久值（如果所有耐久值被吸尽，目标将昏迷——本法术没有杀死目标的能力）。深层魔法：钻研黑暗学识的人对力量的渴求极度强烈。熟稔魔法的巫师会从目标身上吸取POW而非魔法值。</t>
-  </si>
-  <si>
-    <t>别名：生命力吸取术、尼安贝的仪式、啜饮魔力的灵丹</t>
-  </si>
-  <si>
-    <t>施法用时：1到5轮（由搜索的区域决定）</t>
-  </si>
-  <si>
-    <t>可以让施法者侦测特定地点的生命迹象。法术的范围大约是一栋房子的大小。施法者必须在场。法术可以让施法者区分物种（如狗或人），但无法辨认特定的人物。施法者可以侦测生命迹象并找到大概地点，但无法找到精确的位置。</t>
-  </si>
-  <si>
-    <t>别名：直感他人的存在、定位生命共振</t>
-  </si>
-  <si>
-    <t>塞壬之歌</t>
-  </si>
-  <si>
-    <t>真言术</t>
-  </si>
-  <si>
     <t>器官转移术</t>
   </si>
   <si>
-    <t>活尸创造术</t>
-  </si>
-  <si>
     <t>僵尸之眼</t>
   </si>
   <si>
@@ -1194,18 +1046,9 @@
     <t>夜雾唤起术</t>
   </si>
   <si>
-    <t>SIREN'SSONG/Siren'sSong</t>
-  </si>
-  <si>
-    <t>SEKHMENKENHEP'SWORDS/WordsofPower</t>
-  </si>
-  <si>
     <t>TRANSFERORGAN/TransferOrgan</t>
   </si>
   <si>
-    <t>CREATEZOMBI/CreateZombi</t>
-  </si>
-  <si>
     <t>EYESOFTHEZOMBIE/EyesoftheZombie</t>
   </si>
   <si>
@@ -1215,42 +1058,9 @@
     <t>RAISENIGHTFOG/RaiseNightFog</t>
   </si>
   <si>
-    <t>コスト：3服分ごとに10MP</t>
-  </si>
-  <si>
-    <t>必要ラウンド：1服分を振りかけるのに1R</t>
-  </si>
-  <si>
-    <t>別名：エジプトの粉、死者の防御</t>
-  </si>
-  <si>
-    <t>2000年以上前のエジプトのミイラから取った粉から超自然の存在にダメージを与える灰緑色の粉を作り出す。</t>
-  </si>
-  <si>
-    <t>コスト：さまざまなMP、1d3正気度ポイント</t>
-  </si>
-  <si>
     <t>必要ラウンド：１時間</t>
   </si>
   <si>
-    <t>別名：逆なる呪文、交換の儀式、他者なる肉の外套</t>
-  </si>
-  <si>
-    <t>術者を知っていて愛しているか強い好意を持っている対象の人間との精神を交換する。</t>
-  </si>
-  <si>
-    <t>コスト：10MP、1d10正気度ポイント</t>
-  </si>
-  <si>
-    <t>必要ラウンド：5R以上</t>
-  </si>
-  <si>
-    <t>別名：</t>
-  </si>
-  <si>
-    <t>対象と永久的に精神を交換する強力な呪文で、他者を乗っ取りより長生きするために使われる。対抗POWロールが必要で、失敗した場合は再度「精神転移」を使用しなければ精神が行き場を失い永遠の彼方に消滅する。</t>
-  </si>
-  <si>
     <t>深層のバージョンあり。</t>
   </si>
   <si>
@@ -1278,27 +1088,6 @@
     <t>嫌がらせや警告目的で対象が除く鏡に術者の姿を映し出すことができる。対象が聞き取ることができる単語や短い語句を言うことができる。</t>
   </si>
   <si>
-    <t>消耗：6点魔法值；5点理智值</t>
-  </si>
-  <si>
-    <t>施法者通过吟唱一段歌谣或旋律，诱骗一名目标，以为施法者就是他或她心中所念之人。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若成功，目标的行动好像完全被施法者魅惑了一般——他愿意照着施法者的意愿说任何话、做任何事。若目标被强迫去做对施法者所爱的他人或者目标自己造成伤害的行动时，需要再次进行POW对抗检定。法术会影响所有听到歌声的人，每个人都要各自和施法者进行POW对抗，否则会受到影响。法术的效果持续1D10小时。</t>
-  </si>
-  <si>
-    <t>别名：魅力术、美人鱼的催眠曲、精神敏感术</t>
-  </si>
-  <si>
-    <t>消耗：3+ 点魔法值；1D6 点理智值</t>
-  </si>
-  <si>
-    <t>施法用时：10+ 分钟</t>
-  </si>
-  <si>
-    <t>施法者与大群听众创造强烈的联系。施法者必须即兴演讲并看似真诚，来维持听众的注意力。施法者在讲到每个论据、论点和命令时都要消耗3 点魔法值并进行一次 KP 认为合适的社交检定（「魅惑」「话术」或「说服」）并成功，不然演讲会在困惑不解中犹犹豫豫地结束。在演讲成功结束后，听众会在 1D3 天中完全相信演讲的内容。</t>
-  </si>
-  <si>
-    <t>别名：塞克曼克尼普 (Sekhmenkenhep) 真言术、邪恶唬骗术</t>
-  </si>
-  <si>
     <t>\n\n</t>
   </si>
   <si>
@@ -1344,18 +1133,6 @@
     <t>别名：波塞冬的吐息、水蒸气披风、永恒秘密的黑暗迷雾</t>
   </si>
   <si>
-    <t>消耗：10点魔法值；10点理智值</t>
-  </si>
-  <si>
-    <t>施法用时：可变</t>
-  </si>
-  <si>
-    <t>用河豚内脏和生物碱制造麻药，使目标濒临死亡。毒剂必须被目标吸入。目标随后须在极难CON检定成功，方可抵抗毒剂的作用。如果失败，目标会陷入深度昏迷状态，和死亡难以区分。可怕的是，目标仍有意识却无法行动。他将被置入棺材，活着埋到坟地里。一支小管子连接着棺材内和地表，让他能够呼吸。在这期间，不幸的法术目标必须每三小时进行一次理智检定，失败会损失1D6点理智值。如果目标在此期间陷入疯狂，他会屈服于施法者的意志，为消除对坟墓的恐惧感到高兴。三个夜晚之后，施法者来到坟地并施放本法术。如果施法者察觉到目标精神上的抵抗，他和目标之间必须进行一次POW对抗检定。不论施法者疯狂与否，施法成功后目标的POW将被抽走，只剩1点。如果施法失败，施法者可以直接盖住呼吸孔，任由目标窒息而死。施法成功后，施法者即创造了一个僵尸仆从，可以执行简单的命令。这个不幸的僵尸自此始终在施法者的这个法术的作用下，直到他被释放——一般意味着目标真正的死亡和主人的死亡。</t>
-  </si>
-  <si>
-    <t>别名：洛阿的祝福、伏都祭司的仆人</t>
-  </si>
-  <si>
     <t>灵魂之歌</t>
   </si>
   <si>
@@ -1593,12 +1370,6 @@
     <t>ELDERSIGN/ElderSign</t>
   </si>
   <si>
-    <t>POSEMUNDANE/PoseMundane</t>
-  </si>
-  <si>
-    <t>MASK/PoseMundane</t>
-  </si>
-  <si>
     <t>WAVEOFOBLIVION/WaveofOblivion</t>
   </si>
   <si>
@@ -1993,6 +1764,497 @@
   </si>
   <si>
     <t>CREATEWINDOW/创造传送窗</t>
+  </si>
+  <si>
+    <t>Casting time: 1 hour</t>
+  </si>
+  <si>
+    <t>Cost: 13 magic points; 5 POW; 1D8 Sanity</t>
+  </si>
+  <si>
+    <t>Casting time:  1 hour</t>
+  </si>
+  <si>
+    <t>Permanently replaces any human internal organ with its 
+equivalent from another human, with the exception of 
+the heart, which it cannot be moved or traded. A living 
+donor must be at hand—it is inconsequential whether or 
+not the donor agrees to the procedure. If they are aware, 
+both donor and recipient should make a Sanity roll (1D8 
+loss)—if the donor is unaware of the procedure but later 
+learns about their part in it, they lose 1D10 Sanity points.\n
+A paste is made of blood from both participants, mixed 
+with a little chameleon saliva. The donor, receiver, and 
+caster are then surrounded by a group who link hands 
+and recite an ancient poem: exactly 63 magic points are 
+drawn in near equal amounts from each chanter and the 
+caster (this energy keeps the subjects alive during the 
+procedure). Using the paste, the caster draws a symbol of 
+the organ to be transferred on the respective bodies of the 
+participants. After an hour of meditation and visualization, 
+the caster delves his or her hands into the donor body 
+where the symbol is marked. Pinching off major vessels 
+and connecting tubes between thumb and forefinger, the 
+organ is lifted out and placed on a circular stone table. 
+This is repeated for the other person, and then the organ 
+is installed in its new body and sewn into place. Whether 
+the donor is fortunate enough to have their swapped organs 
+replaced (and so being allowed to live) is determined by 
+the whim of the caster.\nAlternative names: Bodily Manipulation, Steal Flesh.</t>
+  </si>
+  <si>
+    <t>都是要最后甩去删分行符网站的</t>
+  </si>
+  <si>
+    <t>僵尸创造术</t>
+  </si>
+  <si>
+    <t>消耗：16点魔法值；1D6点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：1星期</t>
+  </si>
+  <si>
+    <t>CREATEZOMBIE/CreateZombie</t>
+  </si>
+  <si>
+    <t>必须泼洒仪式用的液体到尸身上或者尸体葬
+在的坟墓中。KP决定仪式液体的成分——至少要
+有一部分是难以合法取得的。尸体即可自行熟成。
+在这一个星期结束时，施法者返回坟墓，吟诵束
+缚仪式。在半个小时的吟唱结束后，尸体会从坟墓中爬出来，之后就开始代行施法者的意愿。僵
+尸只会执行普通而简单的任务，如“保护这个”“拿
+那个”“杀了他！”\n用这种方式制造的僵尸会在复苏以后继续腐
+坏。所以，想要维持稳定的僵尸仆从的巫师必须
+定期制造替代品。</t>
+  </si>
+  <si>
+    <t>别名：不死之仪式、黑色束缚、苍白斗篷、
+死者苏生术</t>
+  </si>
+  <si>
+    <t>Cost: 16 magic points; 1D6 Sanity points</t>
+  </si>
+  <si>
+    <t>Casting time: 1 week</t>
+  </si>
+  <si>
+    <t>A ritual liquid must be poured over a corpse or into the 
+grave where a corpse lies. The Keeper determines the 
+ingredients of the liquid: at least one part should be 
+difficult to obtain legally. The corpse is left to mature. At 
+the end of a week, the caster comes to the grave and intones 
+the binding ritual. At the end of the half-hour chant, the 
+corpse claws its way from the grave and thereafter performs 
+the caster’s will. The zombie will perform mundane and 
+simple tasks such as "guard this," "fetch that," or "kill him!"\nA zombie created in this manner continues to rot after 
+it has risen. Thus a wizard wishing a constant zombie 
+servant must periodically create replacements.\nAlternative names: Ritual of the Undying, Black Binding, 
+The Ashen Cowl, Raising of the Dead.</t>
+  </si>
+  <si>
+    <t>Cost: 3 magic points; 1D8+2 Sanity points</t>
+  </si>
+  <si>
+    <t>Allows the caster to take direct control of an individual 
+zombie (that they have raised and prepared) and thereafter 
+to perceive events from the viewpoint of that zombie. The 
+eyes of the zombie must first be removed and placed in a 
+bath of specific chemicals. The caster also must remove their 
+own eyes, allowing the zombie eyes to replace their own. The 
+caster thereupon moves, perceives, and reacts as though in the 
+body of the target zombie, until such time as the zombie eyes 
+are removed from the caster’s sockets. Once activated, contact 
+with an individual zombie target can be sustained unbroken 
+for 1D3 months (the zombie is then decayed beyond use).\n
+The caster’s eyes (if safely maintained) may be 
+re-inserted when desired by repaying the spell’s costs and 
+performing a short chant.\n
+Deeper magic: the caster removes only one eye and replaces 
+it with a zombie eye, effectively allowing the caster to inhabit 
+two bodies at the same time. Should this “double perspective” 
+be attempted by a sane individual it provokes a Sanity roll 
+(1D4/1D8 loss), plus the additional loss of 1D4 Sanity points 
+per day thereafter until the zombie eye is removed.\n
+ Alternative names: Dead Sight, Shell of the Corpse, The Stalking Witness.</t>
+  </si>
+  <si>
+    <t>Cost: 5 magic points; 1 Sanity point</t>
+  </si>
+  <si>
+    <t>Casting time: half a day</t>
+  </si>
+  <si>
+    <t>As a harassment or warning, the caster is able to project his 
+or her image onto the surface of a mirror or mirroring surface 
+that is being gazed into by the caster's intended target.\n
+The target can be anywhere on Earth. The caster needs 
+a mirror large enough to see his or her full head and neck. 
+Gazing within it and keeping an image of the target in 
+mind, the caster utters the incantation and waits. When the 
+target looks into a darkened window, a mirror, or any other 
+mirroring surface, an image of the caster begins to form. If 
+the caster tires before the target looks into a mirror, that 
+loss of attention breaks the spell.\n
+ Sometimes the mirror image of the caster is looking 
+directly into the eyes of the target. At other times the 
+caster may be seen standing directly behind the target in 
+the reflection. If the target wears glasses, images reflected 
+in the lenses may even be resolved. The target can hear 
+words and short phrases uttered by the caster. The caster 
+can see through his or her mirror as well, seeing the target 
+in their surroundings.\nAlternative names: The Silvery Warning, Reflection of Hate, 
+The All Seeing Eye.</t>
+  </si>
+  <si>
+    <t>Cost: 3 magic points; 1D2 Sanity points</t>
+  </si>
+  <si>
+    <t>Casting time: 5 minutes</t>
+  </si>
+  <si>
+    <t>Calls forth a dense ground fog from a body of water. May 
+be cast only at night. The ritual involves a bowl for water, 
+filled from the body of water where the fog is to form. The 
+caster blows gently across the surface of the container while 
+making the proper gesticulations. The fog forms suddenly; 
+if there is wind, it drifts naturally with the wind. The fog 
+dissipates with the rising sun. The caster may be many 
+miles away from the body of water where the fog appears, 
+so long as they have the requisite water.\nAlternative names: Poseidon’s Breath, The Cloak of Watery 
+Vapor, The Dark Mist of Eternal Secrets.</t>
+  </si>
+  <si>
+    <t>⼈間の魂を容器に束縛する。</t>
+  </si>
+  <si>
+    <t>対象に⾒せたいものだけを⾒せ、聞かせたいものだけ聞かせる。</t>
+  </si>
+  <si>
+    <t>ヴードゥー、⼈間の魂を隠す。</t>
+  </si>
+  <si>
+    <t>魂を護符に閉じ込める。</t>
+  </si>
+  <si>
+    <t>コスト：8MP、1d6正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：瞬時</t>
+  </si>
+  <si>
+    <t>別名：苦痛の歌、敵を萎びさせよ、殲滅の⽕傷</t>
+  </si>
+  <si>
+    <t>対象に⾁亭的苦痛と永久的な損傷を与え
+る。対抗POWロールに成功することで指定
+した四肢の⼀つが伸びるか縮むかし、1d8
+のダメージと2d10のCONを永久的に失
+う。また対象と⽬撃者は正気度ロールを⾏
+い1d4/1d8正気度を失う。</t>
+  </si>
+  <si>
+    <t>呪⽂を吸収するチャイムを作る。</t>
+  </si>
+  <si>
+    <t>コスト：10MP、1d4正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：30分</t>
+  </si>
+  <si>
+    <t>別名：知的鋭敏の儀礼、博学なる添加の
+歌、学者の合唱</t>
+  </si>
+  <si>
+    <t>術者の知的能⼒が向上し、知的な問題を解
+く確率が上がる。実際には知識系技能のダ
+イスロールに対してボーナスダイスを⼀つ
+得る。</t>
+  </si>
+  <si>
+    <t>ナークーテイトの障壁の創造。</t>
+  </si>
+  <si>
+    <t>⽪膚の兄弟団。
+⾃分に装甲を与える。</t>
+  </si>
+  <si>
+    <t>⼈を⽣きたゾンビに変える。</t>
+  </si>
+  <si>
+    <t>コスト：さまざまなMP、1d4正気度ポイン
+ト</t>
+  </si>
+  <si>
+    <t>必要ラウンド：5R</t>
+  </si>
+  <si>
+    <t>別名：⼤いなる打撃からの保護、意志のよ
+ろい、⾎液の盾</t>
+  </si>
+  <si>
+    <t>物理的な攻撃に対して保護を与える。費や
+したMP１ポイントにつき1d6ポイントの装
+甲を与える。なお装甲は受けたダメージの
+分だけ減少する。</t>
+  </si>
+  <si>
+    <t>コスト：死んだ⾁のSIZ15ポイントにつき
+1MP、1d4正気度ポイントまたは⽣きてい
+る⾁のSIZ15ポイントにつき5MP、1d6正
+気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：5ラウンド</t>
+  </si>
+  <si>
+    <t>別名：溶解の儀式、⽪膚の液化</t>
+  </si>
+  <si>
+    <t>⾁を１ラウンドで融点まで熱する。対象の
+SIZ15につき1d4ダメージを与える。⽬撃
+者は正気度ロールを⾏い1/1d6正気度ポイ
+ントを失う。</t>
+  </si>
+  <si>
+    <t>コスト：かけている６時間ごとに10MP、
+5POW、1d20正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：数⽇</t>
+  </si>
+  <si>
+    <t>別名：蛇⽪の外套、ヴァルーシアのマン
+ト、イグの贈り物</t>
+  </si>
+  <si>
+    <t>死んだばかりの⼈間の⽣前の姿を⾝に纏う
+ことができる。⾁眼、カメラ、X線などで⾒
+た姿も真似ることができる。</t>
+  </si>
+  <si>
+    <t>\n深層のバージョンあり。</t>
+  </si>
+  <si>
+    <t>MP増加。</t>
+  </si>
+  <si>
+    <t>コスト：1+そのラウンドに与えられるダメ
+ージの2倍に等しいMP、1d20正気度ポイ
+ント</t>
+  </si>
+  <si>
+    <t>別名：不浄の締め付け、⿊魔術師の油断な
+らぬ復讐、いやらしいくすぐり</t>
+  </si>
+  <si>
+    <t>対象の⼼臓をわしづかみにし、その間1d3
+のダメージを与え続ける。対抗POWロール
+が必要。</t>
+  </si>
+  <si>
+    <t>呪⽂からの保護。</t>
+  </si>
+  <si>
+    <t>コスト：3MP、1正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：1R</t>
+  </si>
+  <si>
+    <t>別名：みじめなる悲惨な苦痛、７つの地獄
+の膿んだ⽬、敵を引き裂く</t>
+  </si>
+  <si>
+    <t>10m以内の対象を⼀時的に無⼒にする。対
+抗POWロールが必要で、成功すると対象は
+激しい苦痛、顔や⼿が腫れ上がり体液が滴
+り落ち、視⼒を失う。効果が切れると完全
+に回復するが、この経験により正気度ロー
+ルを⾏い1/1d6正気度を失う。</t>
+  </si>
+  <si>
+    <t>コスト：ラウンドごとに1d4MP、1d4正気
+度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：効果を表す前に3R</t>
+  </si>
+  <si>
+    <t>別名：王の嘆き、⻩⾊の宮廷の⾳楽、⼤い
+なる苦悶と苦痛の化膿する沸騰の招致</t>
+  </si>
+  <si>
+    <t>術者が歌う恐ろしく泣き喚くような悲嘆の
+歌が対象の⽪膚や⾁を泡⽴たせ、化膿、悪
+疫の塊へと変更させる。正しく歌うために
+POWロールが必要であり、成功すると1ラ
+ウンドごとに1d6ダメージを与える。また2
+ラウンドごとにAPPを3d10減少させ、さら
+に4ラウンドごとにCONが3d10減少する。
+この呪⽂の防御呪⽂として使うことも可
+能。</t>
+  </si>
+  <si>
+    <t>地球外のモンスターにダメージを与えたり殺したりできる、槍に似た武器を作る呪⽂。</t>
+  </si>
+  <si>
+    <t>コスト：⼀つの⽯ごとに1MP</t>
+  </si>
+  <si>
+    <t>別名：保管の⽯、⽯の代役、保護の環</t>
+  </si>
+  <si>
+    <t>並べた⽯にの上に熱による陽炎を発⽣させる。その後⽯が動いてもわかるようにな
+る。</t>
+  </si>
+  <si>
+    <t>コスト：3MP、1d10正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：1もしくは2R</t>
+  </si>
+  <si>
+    <t>別名：⻑きに忘却されし知識の儀式、再
+発、塩の儀式</t>
+  </si>
+  <si>
+    <t>死体を塩と化合物に分解し、⻘っぽい灰の
+粉にしてしまう。あるいはその過程を逆に
+して死んだ⼈間の体や魂まで作り上げるこ
+とができる。全ての灰が無く⼀部しかない
+場合は「⼝にするのもおぞましい存在」が
+具現化する。この呪⽂を逆に唱えれば（呪
+⽂「ナイハーゴの葬送歌」）、復活した存在
+を粉に戻すことも可能。その場合対抗POW
+ロールが必要。</t>
+  </si>
+  <si>
+    <t>コスト：25POW、1d6正気度ポイント</t>
+  </si>
+  <si>
+    <t>別名：追放の印章、排除の象徴</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話のクリーチャーを⼀時的あ
+るいは永久に追放できるアンサタ⼗字（アンク）を作ることができる。呪⽂を知って
+いるもであればこのアンクを振りかざしク
+リーチャーを追い払う試みをすることが可
+能。</t>
+  </si>
+  <si>
+    <t>コスト：10POW</t>
+  </si>
+  <si>
+    <t>別名：旧き封印、予兆の枝、知恵の五⾓形</t>
+  </si>
+  <si>
+    <t>⼊⼝や「⾨」にあるような旧き印を活性化
+させることができる。</t>
+  </si>
+  <si>
+    <t>POSEMUNDANE/MASK/PoseMundane</t>
+  </si>
+  <si>
+    <t>平凡な見せかけ/仮面</t>
+  </si>
+  <si>
+    <t>コスト：30MP、1d8正気度ポイント</t>
+  </si>
+  <si>
+    <t>別名：⼤洋のこぶしの歌、塩の贈り物、汝に⽔の破滅を</t>
+  </si>
+  <si>
+    <t>術者に向かって押し寄せる猛烈な海の波を
+作り出す。⽬に⾒える範囲に波を作り出す
+ほどの⼗分な塩⽔が必要。</t>
+  </si>
+  <si>
+    <t>防御。</t>
+  </si>
+  <si>
+    <t>コスト：10MP、1d3正気度ポイント</t>
+  </si>
+  <si>
+    <t>別名：衰弱の呪い、破滅の波、⼼眼の深
+淵、精神衝撃、マインド・ブラスト</t>
+  </si>
+  <si>
+    <t>対象の精神に恐ろしい衝撃を与え、5正気
+度ポイントを失わせ⼀時的狂気に陥らせ
+る。対抗POWロールが必要。</t>
+  </si>
+  <si>
+    <t>邪眼からの防御。</t>
+  </si>
+  <si>
+    <t>過去を⾒る。</t>
+  </si>
+  <si>
+    <t>コスト：さまざまなMPおよび正気度ポイン
+ト</t>
+  </si>
+  <si>
+    <t>必要時間：3R</t>
+  </si>
+  <si>
+    <t>疑わしい⾨にかけてみると⾨の向こう側を
+⾒ることができる。</t>
+  </si>
+  <si>
+    <t>コスト：さまざまなポイントのPOW</t>
+  </si>
+  <si>
+    <t>⾨を通るコスト：さまざまなMP、1正気度
+ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：費やすPOW1ポイントごと
+に1時間</t>
+  </si>
+  <si>
+    <t>異なる⼟地、次元、世界、世界との通路を
+想像することができ、⾨を使えば⻑い距離
+を⼀息で移動することができる。</t>
+  </si>
+  <si>
+    <t>有图</t>
+  </si>
+  <si>
+    <t>\n以降POWが５ずつ増えることで創造した⾨
+の移動可能距離を⻑くできる。またMPは1
+ずつ増えることで旅の移動距離を伸ばすこ
+とができる。\n深層のバージョンあり。</t>
+  </si>
+  <si>
+    <t>コスト：1MP、1d3正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要時間：20~60分</t>
+  </si>
+  <si>
+    <t>術者の視界にある⾨の存在がわかるように
+なる。</t>
+  </si>
+  <si>
+    <t>⽬に⾒えない剃⼑を作る。かまいたち。</t>
+  </si>
+  <si>
+    <t>体から離脱している魂を引き寄せる。</t>
+  </si>
+  <si>
+    <t>⽬に⾒えないダメージを与える。</t>
+  </si>
+  <si>
+    <t>必要ラウンド：2時間</t>
+  </si>
+  <si>
+    <t>24時間の間APPを増やし、対⼈技能が20%
+上昇する。</t>
+  </si>
+  <si>
+    <t>腕や触⼿を伸ばす。</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2394,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2175,6 +2437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2483,7 +2748,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2499,17 +2764,17 @@
     <row r="8" spans="2:6">
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
@@ -2523,11 +2788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CC61B9-6E5D-44CA-9D1D-B3BC07E906AF}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2562,833 +2827,737 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>216</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>219</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>220</v>
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>221</v>
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>222</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>223</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>224</v>
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>73</v>
+      <c r="A12" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>225</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
-        <v>74</v>
+      <c r="A13" t="s">
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>227</v>
+        <v>87</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>228</v>
+        <v>88</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>229</v>
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>90</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>231</v>
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>232</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>233</v>
+        <v>93</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>563</v>
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>242</v>
+        <v>97</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>332</v>
+      <c r="A26" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>243</v>
+        <v>99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>250</v>
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>251</v>
+        <v>104</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>245</v>
+      <c r="A34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>253</v>
+        <v>108</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>649</v>
+        <v>117</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>264</v>
+        <v>119</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>265</v>
+      <c r="A49" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>268</v>
+        <v>121</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>277</v>
+        <v>130</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>648</v>
+        <v>131</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>282</v>
+      <c r="A66" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>283</v>
+      <c r="A67" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>285</v>
+      <c r="A69" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>130</v>
+      <c r="A72" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>294</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>297</v>
+        <v>145</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>652</v>
+        <v>148</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>606</v>
+        <v>149</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>603</v>
+        <v>151</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>314</v>
+      <c r="A83" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>651</v>
+        <v>154</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>309</v>
+        <v>159</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>308</v>
+        <v>160</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>307</v>
+      <c r="A91" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>306</v>
+        <v>162</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>159</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3400,524 +3569,1205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:BR20"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="9.15625" style="11"/>
-    <col min="15" max="16" width="9.15625" style="12"/>
-    <col min="17" max="16384" width="9.15625" style="11"/>
+    <col min="1" max="4" width="9.15625" style="11"/>
+    <col min="5" max="6" width="9.15625" style="12"/>
+    <col min="7" max="8" width="9.15625" style="11"/>
+    <col min="9" max="9" width="2.05078125" style="19" customWidth="1"/>
+    <col min="10" max="28" width="9.15625" style="11"/>
+    <col min="29" max="30" width="9.15625" style="12"/>
+    <col min="31" max="49" width="9.15625" style="11"/>
+    <col min="50" max="50" width="9.15625" style="12"/>
+    <col min="51" max="69" width="9.15625" style="11"/>
+    <col min="70" max="70" width="9.15625" style="12"/>
+    <col min="71" max="16384" width="9.15625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.3" customHeight="1">
+    <row r="1" spans="1:70" ht="15.3" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.3" customHeight="1">
+      <c r="B1" s="23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" ht="15.3" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.3" customHeight="1">
+      <c r="D2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AD2" s="11"/>
+      <c r="AW2" s="12"/>
+      <c r="BQ2" s="12"/>
+    </row>
+    <row r="3" spans="1:70" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
+      <c r="D3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.3" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="BO3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="15.3" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="N4" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>603</v>
+      </c>
       <c r="O4" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="P4" s="11"/>
+        <v>604</v>
+      </c>
       <c r="Q4" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.3" customHeight="1">
+        <v>608</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="AZ4" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="BH4" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="BQ4" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR4" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" ht="15.3" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N5" s="12"/>
+        <v>349</v>
+      </c>
       <c r="O5" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.3" customHeight="1">
+        <v>605</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AX5" s="11"/>
+      <c r="AZ5" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="BG5" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="BH5" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="BI5" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="BQ5" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="BR5" s="11"/>
+    </row>
+    <row r="6" spans="1:70" ht="15.3" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N6" s="12"/>
+        <v>350</v>
+      </c>
       <c r="O6" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.3" customHeight="1">
+        <v>606</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX6" s="11"/>
+      <c r="AZ6" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="BG6" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="BH6" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="BI6" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="BQ6" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="BR6" s="11"/>
+    </row>
+    <row r="7" spans="1:70" ht="15.3" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="N7" s="12"/>
+        <v>351</v>
+      </c>
       <c r="O7" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.3" customHeight="1">
-      <c r="I8" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.3" customHeight="1">
+        <v>607</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="AU7" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX7" s="11"/>
+      <c r="AZ7" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="BH7" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="11"/>
+    </row>
+    <row r="8" spans="1:70" ht="15.3" customHeight="1">
+      <c r="D8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="AB8" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="11"/>
+      <c r="BH8" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="11"/>
+    </row>
+    <row r="9" spans="1:70" ht="15.3" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>334</v>
       </c>
+      <c r="E9" s="12" t="s">
+        <v>583</v>
+      </c>
       <c r="F9" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="J9" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="X9" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="Y9" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="AA9" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="AB9" s="12" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.3" customHeight="1">
+      <c r="AC9" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="AY9" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AZ9" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="BA9" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="BB9" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="BC9" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE9" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="BF9" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="BG9" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="BH9" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="BI9" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="BJ9" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="BK9" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="BL9" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="BN9" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="BO9" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="BP9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="BQ9" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="BR9" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" ht="15.3" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>362</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.3" customHeight="1">
+        <v>363</v>
+      </c>
+      <c r="AB10" s="12"/>
+      <c r="AD10" s="11"/>
+      <c r="AW10" s="12"/>
+      <c r="BQ10" s="12"/>
+    </row>
+    <row r="11" spans="1:70" ht="15.3" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>351</v>
+      <c r="D11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>585</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.3" customHeight="1">
+        <v>364</v>
+      </c>
+      <c r="AB11" s="12"/>
+      <c r="AD11" s="11"/>
+      <c r="AW11" s="12"/>
+      <c r="BQ11" s="12"/>
+    </row>
+    <row r="12" spans="1:70" ht="15.3" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.3" customHeight="1">
+        <v>365</v>
+      </c>
+      <c r="AB12" s="12"/>
+      <c r="AD12" s="11"/>
+      <c r="AW12" s="12"/>
+      <c r="BQ12" s="12"/>
+    </row>
+    <row r="13" spans="1:70" ht="15.3" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.3" customHeight="1">
-      <c r="N14" s="12"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.3" customHeight="1">
+        <v>366</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AD13" s="11"/>
+      <c r="AW13" s="12"/>
+      <c r="BQ13" s="12"/>
+    </row>
+    <row r="14" spans="1:70" ht="15.3" customHeight="1">
+      <c r="D14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AD14" s="11"/>
+      <c r="AW14" s="12"/>
+      <c r="BQ14" s="12"/>
+    </row>
+    <row r="15" spans="1:70" ht="15.3" customHeight="1">
       <c r="B15" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>336</v>
+      <c r="D15" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>586</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.3" customHeight="1">
+        <v>397</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AV15" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AZ15" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="BA15" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB15" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="BC15" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="BF15" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG15" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH15" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="BI15" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="BJ15" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="BK15" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="BL15" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="BN15" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="BO15" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="BP15" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="BQ15" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="BR15" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" ht="15.3" customHeight="1">
       <c r="B16" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.3" customHeight="1">
+      <c r="D16" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB16" s="12"/>
+      <c r="AD16" s="11"/>
+      <c r="AW16" s="12"/>
+      <c r="BQ16" s="12"/>
+    </row>
+    <row r="17" spans="2:69" ht="15.3" customHeight="1">
       <c r="B17" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.3" customHeight="1">
+      <c r="D17" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB17" s="12"/>
+      <c r="AD17" s="11"/>
+      <c r="AW17" s="12"/>
+      <c r="BQ17" s="12"/>
+    </row>
+    <row r="18" spans="2:69" ht="15.3" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.3" customHeight="1">
-      <c r="N19" s="12"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.3" customHeight="1">
-      <c r="N20" s="12"/>
-      <c r="P20" s="11"/>
+      <c r="D18" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB18" s="12"/>
+      <c r="AD18" s="11"/>
+      <c r="AW18" s="12"/>
+      <c r="BQ18" s="12"/>
+    </row>
+    <row r="19" spans="2:69" ht="15.3" customHeight="1">
+      <c r="D19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AD19" s="11"/>
+      <c r="AW19" s="12"/>
+      <c r="BH19" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="BQ19" s="12"/>
+    </row>
+    <row r="20" spans="2:69" ht="15.3" customHeight="1">
+      <c r="D20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="AB20" s="12"/>
+      <c r="AD20" s="11"/>
+      <c r="AW20" s="12"/>
+      <c r="BQ20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3952,14 +4802,14 @@
         <v>317</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>610</v>
+        <v>535</v>
       </c>
       <c r="U2" s="12"/>
       <c r="W2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -4025,7 +4875,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>576</v>
+        <v>501</v>
       </c>
       <c r="U4" s="12"/>
     </row>
@@ -4035,7 +4885,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="H5" s="19" t="s">
-        <v>577</v>
+        <v>502</v>
       </c>
       <c r="U5" s="12"/>
     </row>
@@ -4045,7 +4895,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="H6" s="19" t="s">
-        <v>578</v>
+        <v>503</v>
       </c>
       <c r="U6" s="12"/>
     </row>
@@ -4067,49 +4917,49 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>609</v>
+        <v>534</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>573</v>
+        <v>498</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>624</v>
+        <v>549</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>586</v>
+        <v>511</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>631</v>
+        <v>556</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>635</v>
+        <v>560</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>638</v>
+        <v>563</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>642</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.3" customHeight="1">
@@ -4117,46 +4967,46 @@
         <v>318</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>621</v>
+        <v>546</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>611</v>
+        <v>536</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>607</v>
+        <v>532</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>623</v>
+        <v>548</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>629</v>
+        <v>554</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>632</v>
+        <v>557</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>262</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>636</v>
+        <v>561</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>643</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.3" customHeight="1">
@@ -4164,28 +5014,28 @@
         <v>318</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>622</v>
+        <v>547</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>634</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>637</v>
+        <v>562</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>640</v>
+        <v>565</v>
       </c>
       <c r="U11" s="12"/>
     </row>
@@ -4194,13 +5044,13 @@
         <v>318</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>613</v>
+        <v>538</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>641</v>
+        <v>566</v>
       </c>
       <c r="U12" s="12"/>
     </row>
@@ -4209,16 +5059,16 @@
         <v>318</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>614</v>
+        <v>539</v>
       </c>
       <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="15.3" customHeight="1">
       <c r="F14" s="19" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="U14" s="12"/>
     </row>
@@ -4230,55 +5080,55 @@
         <v>325</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>572</v>
+        <v>497</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>585</v>
+        <v>510</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>588</v>
+        <v>513</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>595</v>
+        <v>520</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>597</v>
+        <v>522</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>601</v>
+        <v>526</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>606</v>
+        <v>531</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>329</v>
@@ -4289,55 +5139,55 @@
         <v>318</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>566</v>
+        <v>491</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>570</v>
+        <v>495</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>581</v>
+        <v>506</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>583</v>
+        <v>508</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>587</v>
+        <v>512</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>596</v>
+        <v>521</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>598</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>605</v>
+        <v>530</v>
       </c>
       <c r="U16" s="12"/>
     </row>
@@ -4347,7 +5197,7 @@
       </c>
       <c r="D17" s="12"/>
       <c r="K17" s="19" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="U17" s="12"/>
     </row>
@@ -4408,7 +5258,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4424,17 +5274,17 @@
     <row r="8" spans="2:6">
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
@@ -4595,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>574</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4827,7 +5677,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4835,7 +5685,7 @@
         <v>331</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4947,7 +5797,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4971,7 +5821,7 @@
         <v>213</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5155,7 +6005,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>563</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5331,7 +6181,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>595</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5451,7 +6301,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5595,7 +6445,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>606</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5611,7 +6461,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5635,7 +6485,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>601</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5723,7 +6573,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5787,7 +6637,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>597</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5810,1062 +6660,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD23C35-6CB4-4BD3-8AEB-D709EB4CE400}">
-  <dimension ref="A1:Y20"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="11"/>
-    <col min="23" max="24" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V8" s="12"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V14" s="12"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="X20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB3DD89-5585-46F0-8F1A-97825E500626}">
-  <dimension ref="A1:Y20"/>
-  <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="11"/>
-    <col min="23" max="24" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="X3" s="11"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V8" s="12"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V14" s="12"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="X20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C7F52-414D-439D-B3EF-40928BEF37C1}">
-  <dimension ref="A1:Y20"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="11"/>
-    <col min="23" max="24" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.3" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="X3"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V8" s="12"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.3" customHeight="1">
-      <c r="V14" s="12"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.3" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.3" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="X20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>